--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.95280000000001</v>
+        <v>-21.90790000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.316199999999997</v>
+        <v>-7.226599999999994</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.02959999999998</v>
+        <v>-19.94969999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.41949999999999</v>
+        <v>-20.39789999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.491699999999998</v>
+        <v>-7.528899999999998</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.45219999999998</v>
+        <v>-21.63409999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.0167</v>
+        <v>-13.0686</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.0983</v>
+        <v>-12.90029999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.1835</v>
+        <v>-12.60440000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.5151</v>
+        <v>-11.8364</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.8125</v>
+        <v>-11.7825</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.8731</v>
+        <v>-10.9975</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.83669999999999</v>
+        <v>-21.87299999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.6899</v>
+        <v>-13.685</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.5122</v>
+        <v>-12.3275</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.87509999999999</v>
+        <v>-21.99819999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.91189999999999</v>
+        <v>-12.87259999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.676499999999997</v>
+        <v>-8.724099999999998</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2635</v>
+        <v>-22.2935</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.792599999999997</v>
+        <v>-7.891999999999997</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59350000000001</v>
+        <v>-21.5567</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.167099999999997</v>
+        <v>-7.122499999999994</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.22580000000001</v>
+        <v>-12.33130000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.46530000000002</v>
+        <v>-20.43380000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.00989999999999</v>
+        <v>-21.97759999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.690799999999992</v>
+        <v>-7.685599999999994</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.7467</v>
+        <v>-10.4021</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.4602</v>
+        <v>-12.18209999999999</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.35130000000001</v>
+        <v>-21.4424</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.692099999999996</v>
+        <v>-8.561799999999995</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.088299999999998</v>
+        <v>-8.166699999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.757999999999996</v>
+        <v>-7.706799999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
